--- a/M2 - Experiment.xlsx
+++ b/M2 - Experiment.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/healydf1_cardiff_ac_uk/Documents/Y2 Physics/Labs/Week 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{4DD9568A-FB9B-44FE-86AB-7B65112316B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9306654-4841-48F7-B207-784CCE174EDE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{350ECB57-59BA-4B0F-B7B3-5A60D5608C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E23B30F3-164C-4B09-8E25-38556857129A}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="actual frequencies" sheetId="5" r:id="rId2"/>
-    <sheet name="predicted frequencies" sheetId="3" r:id="rId3"/>
+    <sheet name="measured" sheetId="5" r:id="rId2"/>
+    <sheet name="predicted" sheetId="3" r:id="rId3"/>
     <sheet name="error calculations - unfinished" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -23,29 +23,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -60,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="54">
   <si>
     <t xml:space="preserve">Box dimensions </t>
   </si>
@@ -213,6 +203,15 @@
   </si>
   <si>
     <t>frequency</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
 </sst>
 </file>
@@ -4447,6 +4446,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4746,8 +4749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC00771-472A-4C8E-9D4F-E57C9D645CA2}">
   <dimension ref="A1:AI223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11360,236 +11363,192 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E14D78-EF32-4382-A8C6-36BD5626F9D8}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
+        <v>449.5</v>
+      </c>
+      <c r="B2">
+        <v>450</v>
+      </c>
+      <c r="C2">
+        <v>448</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
-        <v>449.5</v>
+        <v>690.5</v>
       </c>
       <c r="B3">
-        <v>450</v>
+        <v>690</v>
       </c>
       <c r="C3">
-        <v>448</v>
-      </c>
-      <c r="D3" s="2">
-        <v>426.38557213930301</v>
-      </c>
+        <v>689</v>
+      </c>
+      <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
-        <v>690.5</v>
+        <v>810.5</v>
       </c>
       <c r="B4">
-        <v>690</v>
+        <v>813</v>
       </c>
       <c r="C4">
-        <v>689</v>
-      </c>
-      <c r="D4">
-        <v>666.95330739299618</v>
-      </c>
+        <v>813</v>
+      </c>
+      <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
-        <v>810.5</v>
+        <v>874.5</v>
       </c>
       <c r="B5">
-        <v>813</v>
+        <v>869</v>
       </c>
       <c r="C5">
-        <v>813</v>
-      </c>
-      <c r="D5">
-        <v>791.60051185621251</v>
-      </c>
+        <v>869</v>
+      </c>
+      <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
-        <v>874.5</v>
+        <v>1105.5</v>
       </c>
       <c r="B6">
-        <v>869</v>
+        <v>1079</v>
       </c>
       <c r="C6">
-        <v>869</v>
-      </c>
-      <c r="D6" s="2">
-        <v>852.77114427860693</v>
-      </c>
+        <v>920</v>
+      </c>
+      <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
-        <v>1105.5</v>
+        <v>1183.3</v>
       </c>
       <c r="B7">
-        <v>1079</v>
+        <v>1122</v>
       </c>
       <c r="C7">
-        <v>920</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1078.0314465408806</v>
-      </c>
+        <v>1105</v>
+      </c>
+      <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
-        <v>1183.3</v>
+        <v>1296.3</v>
       </c>
       <c r="B8">
-        <v>1122</v>
+        <v>1284</v>
       </c>
       <c r="C8">
-        <v>1105</v>
-      </c>
-      <c r="D8">
-        <v>1082.6104279733784</v>
-      </c>
+        <v>1289</v>
+      </c>
+      <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
-        <v>1296.3</v>
+        <v>1347</v>
       </c>
       <c r="B9">
-        <v>1284</v>
+        <v>1344</v>
       </c>
       <c r="C9">
-        <v>1289</v>
-      </c>
-      <c r="D9">
-        <v>1279.1567164179105</v>
-      </c>
+        <v>1346</v>
+      </c>
+      <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
-        <v>1347</v>
+        <v>1398.3000000000002</v>
       </c>
       <c r="B10">
-        <v>1344</v>
+        <v>1386</v>
       </c>
       <c r="C10">
-        <v>1346</v>
-      </c>
-      <c r="D10">
-        <v>1333.9066147859924</v>
-      </c>
+        <v>1385</v>
+      </c>
+      <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
-        <v>1398.3000000000002</v>
+        <v>1425.3</v>
       </c>
       <c r="B11">
-        <v>1386</v>
+        <v>1423</v>
       </c>
       <c r="C11">
-        <v>1385</v>
-      </c>
-      <c r="D11">
-        <v>1337.4539880317532</v>
-      </c>
+        <v>1422</v>
+      </c>
+      <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
-        <v>1425.3</v>
+        <v>1463.7</v>
       </c>
       <c r="B12">
-        <v>1423</v>
+        <v>1459</v>
       </c>
       <c r="C12">
-        <v>1422</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1374.5437149269819</v>
-      </c>
+        <v>1456</v>
+      </c>
+      <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="13">
-        <v>1463.7</v>
-      </c>
-      <c r="B13">
-        <v>1459</v>
-      </c>
-      <c r="C13">
-        <v>1456</v>
-      </c>
-      <c r="D13">
-        <v>1442.5909397329192</v>
-      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13791,6 +13750,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CA411C6D30F57B4196B20B7EACC14F4D" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6db56da8e05f9a2eeba5db3cab805031">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bbfb0c1-32b1-413f-8808-671b95e9cde7" xmlns:ns4="09090070-2be9-4c22-93c4-eeb822e3fb19" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd14dad93616bd15334058df9a7e8863" ns3:_="" ns4:_="">
     <xsd:import namespace="9bbfb0c1-32b1-413f-8808-671b95e9cde7"/>
@@ -14001,15 +13969,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -14017,6 +13976,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E9CB9C7-9352-456F-8DCB-1DCC25E4FF5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B874EAE-7681-468C-9D67-A715EA4F75C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14035,27 +14002,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E9CB9C7-9352-456F-8DCB-1DCC25E4FF5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27B89C7E-62F7-48AB-8638-EB339030D86A}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9bbfb0c1-32b1-413f-8808-671b95e9cde7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="09090070-2be9-4c22-93c4-eeb822e3fb19"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9bbfb0c1-32b1-413f-8808-671b95e9cde7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/M2 - Experiment.xlsx
+++ b/M2 - Experiment.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/healydf1_cardiff_ac_uk/Documents/Y2 Physics/Labs/Week 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{350ECB57-59BA-4B0F-B7B3-5A60D5608C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A8679BB-C323-4845-A240-82B89B2347B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E23B30F3-164C-4B09-8E25-38556857129A}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="measured" sheetId="5" r:id="rId2"/>
-    <sheet name="predicted" sheetId="3" r:id="rId3"/>
-    <sheet name="error calculations - unfinished" sheetId="2" r:id="rId4"/>
+    <sheet name="short" sheetId="6" r:id="rId2"/>
+    <sheet name="medium" sheetId="7" r:id="rId3"/>
+    <sheet name="long" sheetId="8" r:id="rId4"/>
+    <sheet name="measured" sheetId="5" r:id="rId5"/>
+    <sheet name="predicted" sheetId="3" r:id="rId6"/>
+    <sheet name="error calculations - unfinished" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="53">
   <si>
     <t xml:space="preserve">Box dimensions </t>
   </si>
@@ -193,15 +196,6 @@
     <t>At amplitude 2</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
     <t>frequency</t>
   </si>
   <si>
@@ -213,15 +207,23 @@
   <si>
     <t>long</t>
   </si>
+  <si>
+    <t>frequency /Hz</t>
+  </si>
+  <si>
+    <t>amplitude</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -300,7 +302,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -317,6 +319,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4373,16 +4377,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>569642</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>126423</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>524284</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>186788</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12123</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>395431</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>84694</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4409,16 +4413,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>231322</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>630465</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>217715</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426357</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4444,10 +4448,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4749,8 +4749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC00771-472A-4C8E-9D4F-E57C9D645CA2}">
   <dimension ref="A1:AI223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB42" sqref="AA1:AB42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11362,11 +11362,1232 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F752B00-2025-4031-B80D-1EE55BD97377}">
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1340</v>
+      </c>
+      <c r="B2" s="14">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1342.5</v>
+      </c>
+      <c r="B3" s="14">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1345</v>
+      </c>
+      <c r="B4" s="14">
+        <v>10</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1347.5</v>
+      </c>
+      <c r="B5" s="14">
+        <v>9.6</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1350</v>
+      </c>
+      <c r="B6" s="14">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1352.5</v>
+      </c>
+      <c r="B7" s="14">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1355</v>
+      </c>
+      <c r="B8" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1356</v>
+      </c>
+      <c r="B9" s="14">
+        <v>7.2</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1357</v>
+      </c>
+      <c r="B10" s="14">
+        <v>12</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1357.5</v>
+      </c>
+      <c r="B11" s="14">
+        <v>14.8</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1358</v>
+      </c>
+      <c r="B12" s="14">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1359</v>
+      </c>
+      <c r="B13" s="14">
+        <v>21.2</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1360</v>
+      </c>
+      <c r="B14" s="14">
+        <v>27.2</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1361</v>
+      </c>
+      <c r="B15" s="14">
+        <v>28.8</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1362</v>
+      </c>
+      <c r="B16" s="14">
+        <v>29.2</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1362.5</v>
+      </c>
+      <c r="B17" s="14">
+        <v>25.6</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1363</v>
+      </c>
+      <c r="B18" s="14">
+        <v>30</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1364</v>
+      </c>
+      <c r="B19" s="14">
+        <v>28.4</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1365</v>
+      </c>
+      <c r="B20" s="14">
+        <v>27.6</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1367.5</v>
+      </c>
+      <c r="B21" s="14">
+        <v>24.8</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1370</v>
+      </c>
+      <c r="B22" s="14">
+        <v>21.2</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1372.5</v>
+      </c>
+      <c r="B23" s="14">
+        <v>19.2</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1375</v>
+      </c>
+      <c r="B24" s="14">
+        <v>16</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1377.5</v>
+      </c>
+      <c r="B25" s="14">
+        <v>14.8</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1380</v>
+      </c>
+      <c r="B26" s="14">
+        <v>11.6</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1382.5</v>
+      </c>
+      <c r="B27" s="14">
+        <v>11.6</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1385</v>
+      </c>
+      <c r="B28" s="14">
+        <v>8</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1387.5</v>
+      </c>
+      <c r="B29" s="14">
+        <v>11.2</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1390</v>
+      </c>
+      <c r="B30" s="14">
+        <v>13.2</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1392.5</v>
+      </c>
+      <c r="B31" s="14">
+        <v>16</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1395</v>
+      </c>
+      <c r="B32" s="14">
+        <v>21.6</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1397.5</v>
+      </c>
+      <c r="B33" s="14">
+        <v>25.6</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1400</v>
+      </c>
+      <c r="B34" s="14">
+        <v>24.8</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1402.5</v>
+      </c>
+      <c r="B35" s="14">
+        <v>22.8</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1405</v>
+      </c>
+      <c r="B36" s="14">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1407.5</v>
+      </c>
+      <c r="B37" s="14">
+        <v>15.2</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1410</v>
+      </c>
+      <c r="B38" s="14">
+        <v>11.2</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1412.5</v>
+      </c>
+      <c r="B39" s="14">
+        <v>10.4</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1415</v>
+      </c>
+      <c r="B40" s="14">
+        <v>10</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1417.5</v>
+      </c>
+      <c r="B41" s="14">
+        <v>10.4</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1420</v>
+      </c>
+      <c r="B42" s="14">
+        <v>19.2</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BC11F2-2F02-4F8D-8001-52C42AB94DC4}">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
+        <v>1340.9905000000001</v>
+      </c>
+      <c r="B2" s="14">
+        <v>10.178260869565216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
+        <v>1342.5</v>
+      </c>
+      <c r="B3" s="14">
+        <v>9.3681818181818191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="13">
+        <v>1347.0284999999999</v>
+      </c>
+      <c r="B4" s="14">
+        <v>8.3454545454545457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="13">
+        <v>1348.962</v>
+      </c>
+      <c r="B5" s="14">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
+        <v>1352.5474999999999</v>
+      </c>
+      <c r="B6" s="14">
+        <v>15.475675675675676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
+        <v>1353.019</v>
+      </c>
+      <c r="B7" s="14">
+        <v>4.8375000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
+        <v>1353.443</v>
+      </c>
+      <c r="B8" s="14">
+        <v>10.120833333333334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="13">
+        <v>1353.4905000000001</v>
+      </c>
+      <c r="B9" s="14">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="13">
+        <v>1356.0094999999999</v>
+      </c>
+      <c r="B10" s="14">
+        <v>12.583333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="13">
+        <v>1358.038</v>
+      </c>
+      <c r="B11" s="14">
+        <v>28.994520547945204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="13">
+        <v>1359.981</v>
+      </c>
+      <c r="B12" s="14">
+        <v>17.997727272727275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="13">
+        <v>1360</v>
+      </c>
+      <c r="B13" s="14">
+        <v>26.979411764705883</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="13">
+        <v>1360.981</v>
+      </c>
+      <c r="B14" s="14">
+        <v>20.775471698113208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="13">
+        <v>1362.9335000000001</v>
+      </c>
+      <c r="B15" s="14">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="13">
+        <v>1363.9905000000001</v>
+      </c>
+      <c r="B16" s="14">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="13">
+        <v>1364.962</v>
+      </c>
+      <c r="B17" s="14">
+        <v>29.008333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="13">
+        <v>1365.9905000000001</v>
+      </c>
+      <c r="B18" s="14">
+        <v>27.455072463768118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="13">
+        <v>1366.5094999999999</v>
+      </c>
+      <c r="B19" s="14">
+        <v>24.759677419354841</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="13">
+        <v>1367.4525000000001</v>
+      </c>
+      <c r="B20" s="14">
+        <v>25.951562500000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="13">
+        <v>1369.5284999999999</v>
+      </c>
+      <c r="B21" s="14">
+        <v>19.616666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="13">
+        <v>1370.9335000000001</v>
+      </c>
+      <c r="B22" s="14">
+        <v>28.646478873239435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="13">
+        <v>1375</v>
+      </c>
+      <c r="B23" s="14">
+        <v>15.9375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="13">
+        <v>1376.9335000000001</v>
+      </c>
+      <c r="B24" s="14">
+        <v>21.388679245283019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="13">
+        <v>1382.4525000000001</v>
+      </c>
+      <c r="B25" s="14">
+        <v>15.070270270270271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="13">
+        <v>1384.9525000000001</v>
+      </c>
+      <c r="B26" s="14">
+        <v>12.289655172413793</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="13">
+        <v>1386.557</v>
+      </c>
+      <c r="B27" s="14">
+        <v>15.875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="13">
+        <v>1387.0284999999999</v>
+      </c>
+      <c r="B28" s="14">
+        <v>12.669696969696968</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="13">
+        <v>1387.4525000000001</v>
+      </c>
+      <c r="B29" s="14">
+        <v>11.082758620689654</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="13">
+        <v>1387.9715000000001</v>
+      </c>
+      <c r="B30" s="14">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="13">
+        <v>1391.462</v>
+      </c>
+      <c r="B31" s="14">
+        <v>11.02142857142857</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="13">
+        <v>1393.0664999999999</v>
+      </c>
+      <c r="B32" s="14">
+        <v>24.437096774193549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="13">
+        <v>1396.981</v>
+      </c>
+      <c r="B33" s="14">
+        <v>21.970370370370372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="13">
+        <v>1401.038</v>
+      </c>
+      <c r="B34" s="14">
+        <v>17.259090909090911</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="13">
+        <v>1403.443</v>
+      </c>
+      <c r="B35" s="14">
+        <v>25.990625000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="13">
+        <v>1405.4715000000001</v>
+      </c>
+      <c r="B36" s="14">
+        <v>22.931578947368422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="13">
+        <v>1405.519</v>
+      </c>
+      <c r="B37" s="14">
+        <v>15.726315789473684</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="13">
+        <v>1410.5664999999999</v>
+      </c>
+      <c r="B38" s="14">
+        <v>10.303846153846154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="13">
+        <v>1410.9905000000001</v>
+      </c>
+      <c r="B39" s="14">
+        <v>11.467857142857142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="13">
+        <v>1415.4715000000001</v>
+      </c>
+      <c r="B40" s="14">
+        <v>10.592307692307692</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="13">
+        <v>1415.9905000000001</v>
+      </c>
+      <c r="B41" s="14">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="13">
+        <v>1422.9715000000001</v>
+      </c>
+      <c r="B42" s="14">
+        <v>19.147916666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B42">
+    <sortCondition ref="A2:A42"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159213BB-FB06-470F-880D-E4ECFCD80407}">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
+        <v>1335.1215</v>
+      </c>
+      <c r="B2" s="14">
+        <v>8.9826086956521731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
+        <v>1336.6458</v>
+      </c>
+      <c r="B3" s="14">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="13">
+        <v>1343.0486000000001</v>
+      </c>
+      <c r="B4" s="14">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="13">
+        <v>1343.1701</v>
+      </c>
+      <c r="B5" s="14">
+        <v>9.5954545454545457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
+        <v>1343.5971999999999</v>
+      </c>
+      <c r="B6" s="14">
+        <v>9.2874999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
+        <v>1344.6944000000001</v>
+      </c>
+      <c r="B7" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
+        <v>1353.1215</v>
+      </c>
+      <c r="B8" s="14">
+        <v>17.884090909090911</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="13">
+        <v>1355.0243</v>
+      </c>
+      <c r="B9" s="14">
+        <v>8.5888888888888886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="13">
+        <v>1355.1701</v>
+      </c>
+      <c r="B10" s="14">
+        <v>29.405479452054795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="13">
+        <v>1355.9757</v>
+      </c>
+      <c r="B11" s="14">
+        <v>6.7125000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="13">
+        <v>1358.0728999999999</v>
+      </c>
+      <c r="B12" s="14">
+        <v>28.904166666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="13">
+        <v>1358.1458</v>
+      </c>
+      <c r="B13" s="14">
+        <v>28.22394366197183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="13">
+        <v>1358.5971999999999</v>
+      </c>
+      <c r="B14" s="14">
+        <v>25.717187500000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="13">
+        <v>1358.9513999999999</v>
+      </c>
+      <c r="B15" s="14">
+        <v>11.583333333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="13">
+        <v>1359</v>
+      </c>
+      <c r="B16" s="14">
+        <v>21.388679245283019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="13">
+        <v>1363.0486000000001</v>
+      </c>
+      <c r="B17" s="14">
+        <v>27.346376811594205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="13">
+        <v>1363.9757</v>
+      </c>
+      <c r="B18" s="14">
+        <v>30.133333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="13">
+        <v>1365.3055999999999</v>
+      </c>
+      <c r="B19" s="14">
+        <v>14.529729729729731</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="13">
+        <v>1365.6701</v>
+      </c>
+      <c r="B20" s="14">
+        <v>19.043749999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="13">
+        <v>1368.4757</v>
+      </c>
+      <c r="B21" s="14">
+        <v>24.558064516129033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="13">
+        <v>1368.7813000000001</v>
+      </c>
+      <c r="B22" s="14">
+        <v>27.052941176470586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="13">
+        <v>1372.1944000000001</v>
+      </c>
+      <c r="B23" s="14">
+        <v>12.203448275862069</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="13">
+        <v>1372.6215</v>
+      </c>
+      <c r="B24" s="14">
+        <v>14.191891891891892</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="13">
+        <v>1372.7429999999999</v>
+      </c>
+      <c r="B25" s="14">
+        <v>12.462068965517242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="13">
+        <v>1372.9271000000001</v>
+      </c>
+      <c r="B26" s="14">
+        <v>21.671698113207547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="13">
+        <v>1375</v>
+      </c>
+      <c r="B27" s="14">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="13">
+        <v>1383.1701</v>
+      </c>
+      <c r="B28" s="14">
+        <v>13.275757575757575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="13">
+        <v>1383.5971999999999</v>
+      </c>
+      <c r="B29" s="14">
+        <v>10.39642857142857</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="13">
+        <v>1383.7186999999999</v>
+      </c>
+      <c r="B30" s="14">
+        <v>16.125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="13">
+        <v>1384.0243</v>
+      </c>
+      <c r="B31" s="14">
+        <v>8.125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="13">
+        <v>1395</v>
+      </c>
+      <c r="B32" s="14">
+        <v>21.183333333333334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="13">
+        <v>1396.0971999999999</v>
+      </c>
+      <c r="B33" s="14">
+        <v>25.082258064516129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="13">
+        <v>1402.0728999999999</v>
+      </c>
+      <c r="B34" s="14">
+        <v>17.656818181818185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="13">
+        <v>1403.3542</v>
+      </c>
+      <c r="B35" s="14">
+        <v>25.639062500000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="13">
+        <v>1407.3785</v>
+      </c>
+      <c r="B36" s="14">
+        <v>23.238596491228069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="13">
+        <v>1411.4028000000001</v>
+      </c>
+      <c r="B37" s="14">
+        <v>15.397368421052631</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="13">
+        <v>1411.9513999999999</v>
+      </c>
+      <c r="B38" s="14">
+        <v>11.289285714285713</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="13">
+        <v>1412.5</v>
+      </c>
+      <c r="B39" s="14">
+        <v>9.8230769230769237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="13">
+        <v>1415.9757</v>
+      </c>
+      <c r="B40" s="14">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="13">
+        <v>1417.0728999999999</v>
+      </c>
+      <c r="B41" s="14">
+        <v>19.095833333333331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="13">
+        <v>1425.3055999999999</v>
+      </c>
+      <c r="B42" s="14">
+        <v>9.6307692307692321</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B42">
+    <sortCondition ref="A42"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E14D78-EF32-4382-A8C6-36BD5626F9D8}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11378,13 +12599,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -11397,9 +12618,18 @@
       <c r="C2">
         <v>448</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="D2" s="15">
+        <f>A2/A2</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="15">
+        <f>B2/A2</f>
+        <v>1.0011123470522802</v>
+      </c>
+      <c r="F2" s="15">
+        <f>C2/A2</f>
+        <v>0.99666295884315903</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
@@ -11411,9 +12641,18 @@
       <c r="C3">
         <v>689</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="15">
+        <f t="shared" ref="D3:D14" si="0">A3/A3</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
+        <f t="shared" ref="E3:E13" si="1">B3/A3</f>
+        <v>0.999275887038378</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" ref="F3:F14" si="2">C3/A3</f>
+        <v>0.99782766111513399</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
@@ -11425,9 +12664,18 @@
       <c r="C4">
         <v>813</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="D4" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0030845157310302</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0030845157310302</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
@@ -11439,9 +12687,18 @@
       <c r="C5">
         <v>869</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="D5" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99371069182389937</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="2"/>
+        <v>0.99371069182389937</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
@@ -11453,9 +12710,18 @@
       <c r="C6">
         <v>920</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="D6" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" si="1"/>
+        <v>0.97602894617819991</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="2"/>
+        <v>0.83220262324739935</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
@@ -11467,9 +12733,18 @@
       <c r="C7">
         <v>1105</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="D7" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="1"/>
+        <v>0.94819572382320627</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="2"/>
+        <v>0.93382912194709711</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
@@ -11481,9 +12756,18 @@
       <c r="C8">
         <v>1289</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="D8" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99051145568155519</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="2"/>
+        <v>0.99436858751832136</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
@@ -11495,9 +12779,18 @@
       <c r="C9">
         <v>1346</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="D9" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99777282850779514</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="2"/>
+        <v>0.99925760950259834</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
@@ -11509,9 +12802,18 @@
       <c r="C10">
         <v>1385</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="D10" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99120360437674304</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="2"/>
+        <v>0.99048845026103116</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
@@ -11523,9 +12825,18 @@
       <c r="C11">
         <v>1422</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="D11" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99838630463762024</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="2"/>
+        <v>0.9976846979583246</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
@@ -11537,30 +12848,78 @@
       <c r="C12">
         <v>1456</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="D12" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99678895948623347</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="2"/>
+        <v>0.99473935915829748</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="A13" s="13">
+        <f>AVERAGE(A2:A12)</f>
+        <v>1094.9454545454546</v>
+      </c>
+      <c r="B13" s="13">
+        <f>AVERAGE(B2:B12)</f>
+        <v>1083.5454545454545</v>
+      </c>
+      <c r="C13" s="13">
+        <f t="shared" ref="B13:C13" si="3">AVERAGE(C2:C12)</f>
+        <v>1067.4545454545455</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="1"/>
+        <v>0.98958852246687246</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="2"/>
+        <v>0.97489289628375009</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="B14" s="13">
+        <f>B13-A13</f>
+        <v>-11.400000000000091</v>
+      </c>
+      <c r="C14" s="13">
+        <f>C13-B13</f>
+        <v>-16.090909090909008</v>
+      </c>
+      <c r="D14" s="4">
+        <f>AVERAGE(D2:D13)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" ref="E14:F14" si="4">AVERAGE(E2:E13)</f>
+        <v>0.9904716489003178</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="4"/>
+        <v>0.97572909778250361</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08607EDC-5B21-4FE4-B282-55CE0E04664F}">
   <dimension ref="A1:D216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D15" sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11570,16 +12929,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -13394,13 +14753,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B24B48-99E8-4BA6-8310-92A2C06762CB}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -13750,15 +15107,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CA411C6D30F57B4196B20B7EACC14F4D" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6db56da8e05f9a2eeba5db3cab805031">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bbfb0c1-32b1-413f-8808-671b95e9cde7" xmlns:ns4="09090070-2be9-4c22-93c4-eeb822e3fb19" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd14dad93616bd15334058df9a7e8863" ns3:_="" ns4:_="">
     <xsd:import namespace="9bbfb0c1-32b1-413f-8808-671b95e9cde7"/>
@@ -13969,6 +15317,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -13976,14 +15333,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E9CB9C7-9352-456F-8DCB-1DCC25E4FF5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B874EAE-7681-468C-9D67-A715EA4F75C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14002,18 +15351,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E9CB9C7-9352-456F-8DCB-1DCC25E4FF5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27B89C7E-62F7-48AB-8638-EB339030D86A}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="9bbfb0c1-32b1-413f-8808-671b95e9cde7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="09090070-2be9-4c22-93c4-eeb822e3fb19"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/M2 - Experiment.xlsx
+++ b/M2 - Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/healydf1_cardiff_ac_uk/Documents/Y2 Physics/Labs/Week 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A8679BB-C323-4845-A240-82B89B2347B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{2A8679BB-C323-4845-A240-82B89B2347B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{484F5F90-FF98-4FCE-8B77-CA2F10C0355C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E23B30F3-164C-4B09-8E25-38556857129A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{E23B30F3-164C-4B09-8E25-38556857129A}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -222,8 +222,8 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -319,8 +319,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4749,7 +4749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC00771-472A-4C8E-9D4F-E57C9D645CA2}">
   <dimension ref="A1:AI223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AB42" sqref="AA1:AB42"/>
     </sheetView>
   </sheetViews>
@@ -11365,7 +11365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F752B00-2025-4031-B80D-1EE55BD97377}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -11882,7 +11884,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BC11F2-2F02-4F8D-8001-52C42AB94DC4}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -11896,330 +11900,330 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
-        <v>1340.9905000000001</v>
+        <v>1326</v>
       </c>
       <c r="B2" s="14">
-        <v>10.178260869565216</v>
+        <v>9.3999999999999986</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
-        <v>1342.5</v>
+        <v>1334.5</v>
       </c>
       <c r="B3" s="14">
-        <v>9.3681818181818191</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
-        <v>1347.0284999999999</v>
+        <v>1332</v>
       </c>
       <c r="B4" s="14">
-        <v>8.3454545454545457</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
-        <v>1348.962</v>
+        <v>1335.5</v>
       </c>
       <c r="B5" s="14">
-        <v>10.3</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
-        <v>1352.5474999999999</v>
+        <v>1342</v>
       </c>
       <c r="B6" s="14">
-        <v>15.475675675675676</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
-        <v>1353.019</v>
+        <v>1339.5</v>
       </c>
       <c r="B7" s="14">
-        <v>4.8375000000000004</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
-        <v>1353.443</v>
+        <v>1344</v>
       </c>
       <c r="B8" s="14">
-        <v>10.120833333333334</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
-        <v>1353.4905000000001</v>
+        <v>1345</v>
       </c>
       <c r="B9" s="14">
-        <v>7.5</v>
+        <v>7.1000000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
-        <v>1356.0094999999999</v>
+        <v>1346</v>
       </c>
       <c r="B10" s="14">
-        <v>12.583333333333334</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
-        <v>1358.038</v>
+        <v>1348.5</v>
       </c>
       <c r="B11" s="14">
-        <v>28.994520547945204</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
-        <v>1359.981</v>
+        <v>1345</v>
       </c>
       <c r="B12" s="14">
-        <v>17.997727272727275</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="B13" s="14">
-        <v>26.979411764705883</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
-        <v>1360.981</v>
+        <v>1347</v>
       </c>
       <c r="B14" s="14">
-        <v>20.775471698113208</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
-        <v>1362.9335000000001</v>
+        <v>1353</v>
       </c>
       <c r="B15" s="14">
-        <v>5.95</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
-        <v>1363.9905000000001</v>
+        <v>1350</v>
       </c>
       <c r="B16" s="14">
-        <v>30.2</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
-        <v>1364.962</v>
+        <v>1352.5</v>
       </c>
       <c r="B17" s="14">
-        <v>29.008333333333333</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
-        <v>1365.9905000000001</v>
+        <v>1351</v>
       </c>
       <c r="B18" s="14">
-        <v>27.455072463768118</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
-        <v>1366.5094999999999</v>
+        <v>1353</v>
       </c>
       <c r="B19" s="14">
-        <v>24.759677419354841</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
-        <v>1367.4525000000001</v>
+        <v>1351</v>
       </c>
       <c r="B20" s="14">
-        <v>25.951562500000001</v>
+        <v>27.900000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
-        <v>1369.5284999999999</v>
+        <v>1359.5</v>
       </c>
       <c r="B21" s="14">
-        <v>19.616666666666667</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
-        <v>1370.9335000000001</v>
+        <v>1356</v>
       </c>
       <c r="B22" s="14">
-        <v>28.646478873239435</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
-        <v>1375</v>
+        <v>1358.5</v>
       </c>
       <c r="B23" s="14">
-        <v>15.9375</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
-        <v>1376.9335000000001</v>
+        <v>1363</v>
       </c>
       <c r="B24" s="14">
-        <v>21.388679245283019</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
-        <v>1382.4525000000001</v>
+        <v>1368.5</v>
       </c>
       <c r="B25" s="14">
-        <v>15.070270270270271</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
-        <v>1384.9525000000001</v>
+        <v>1366</v>
       </c>
       <c r="B26" s="14">
-        <v>12.289655172413793</v>
+        <v>11.299999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
-        <v>1386.557</v>
+        <v>1371.5</v>
       </c>
       <c r="B27" s="14">
-        <v>15.875</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="13">
-        <v>1387.0284999999999</v>
+        <v>1371</v>
       </c>
       <c r="B28" s="14">
-        <v>12.669696969696968</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
-        <v>1387.4525000000001</v>
+        <v>1379.5</v>
       </c>
       <c r="B29" s="14">
-        <v>11.082758620689654</v>
+        <v>11.399999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
-        <v>1387.9715000000001</v>
+        <v>1382</v>
       </c>
       <c r="B30" s="14">
-        <v>8.5</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="13">
-        <v>1391.462</v>
+        <v>1378.5</v>
       </c>
       <c r="B31" s="14">
-        <v>11.02142857142857</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
-        <v>1393.0664999999999</v>
+        <v>1385</v>
       </c>
       <c r="B32" s="14">
-        <v>24.437096774193549</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="13">
-        <v>1396.981</v>
+        <v>1385.5</v>
       </c>
       <c r="B33" s="14">
-        <v>21.970370370370372</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="13">
-        <v>1401.038</v>
+        <v>1390</v>
       </c>
       <c r="B34" s="14">
-        <v>17.259090909090911</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
-        <v>1403.443</v>
+        <v>1390.5</v>
       </c>
       <c r="B35" s="14">
-        <v>25.990625000000001</v>
+        <v>22.400000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
-        <v>1405.4715000000001</v>
+        <v>1397</v>
       </c>
       <c r="B36" s="14">
-        <v>22.931578947368422</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
-        <v>1405.519</v>
+        <v>1393.5</v>
       </c>
       <c r="B37" s="14">
-        <v>15.726315789473684</v>
+        <v>14.799999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
-        <v>1410.5664999999999</v>
+        <v>1398</v>
       </c>
       <c r="B38" s="14">
-        <v>10.303846153846154</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
-        <v>1410.9905000000001</v>
+        <v>1399.5</v>
       </c>
       <c r="B39" s="14">
-        <v>11.467857142857142</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
-        <v>1415.4715000000001</v>
+        <v>1401</v>
       </c>
       <c r="B40" s="14">
-        <v>10.592307692307692</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
-        <v>1415.9905000000001</v>
+        <v>1406.5</v>
       </c>
       <c r="B41" s="14">
-        <v>10.5</v>
+        <v>10.200000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="13">
-        <v>1422.9715000000001</v>
+        <v>1409</v>
       </c>
       <c r="B42" s="14">
-        <v>19.147916666666667</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -12248,15 +12252,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
-        <v>1335.1215</v>
+        <v>1317</v>
       </c>
       <c r="B2" s="14">
-        <v>8.9826086956521731</v>
+        <v>9.3999999999999986</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
-        <v>1336.6458</v>
+        <v>1315.5</v>
       </c>
       <c r="B3" s="14">
         <v>8.8000000000000007</v>
@@ -12264,314 +12268,314 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
-        <v>1343.0486000000001</v>
+        <v>1312</v>
       </c>
       <c r="B4" s="14">
-        <v>10.1</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
-        <v>1343.1701</v>
+        <v>1323.5</v>
       </c>
       <c r="B5" s="14">
-        <v>9.5954545454545457</v>
+        <v>9.2999999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
-        <v>1343.5971999999999</v>
+        <v>1328</v>
       </c>
       <c r="B6" s="14">
-        <v>9.2874999999999996</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
-        <v>1344.6944000000001</v>
+        <v>1325.5</v>
       </c>
       <c r="B7" s="14">
-        <v>5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
-        <v>1353.1215</v>
+        <v>1332</v>
       </c>
       <c r="B8" s="14">
-        <v>17.884090909090911</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
-        <v>1355.0243</v>
+        <v>1325</v>
       </c>
       <c r="B9" s="14">
-        <v>8.5888888888888886</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
-        <v>1355.1701</v>
+        <v>1335</v>
       </c>
       <c r="B10" s="14">
-        <v>29.405479452054795</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
-        <v>1355.9757</v>
+        <v>1330.5</v>
       </c>
       <c r="B11" s="14">
-        <v>6.7125000000000004</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
-        <v>1358.0728999999999</v>
+        <v>1327</v>
       </c>
       <c r="B12" s="14">
-        <v>28.904166666666669</v>
+        <v>17.700000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
-        <v>1358.1458</v>
+        <v>1335</v>
       </c>
       <c r="B13" s="14">
-        <v>28.22394366197183</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
-        <v>1358.5971999999999</v>
+        <v>1332</v>
       </c>
       <c r="B14" s="14">
-        <v>25.717187500000001</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
-        <v>1358.9513999999999</v>
+        <v>1333</v>
       </c>
       <c r="B15" s="14">
-        <v>11.583333333333334</v>
+        <v>28.400000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
-        <v>1359</v>
+        <v>1335</v>
       </c>
       <c r="B16" s="14">
-        <v>21.388679245283019</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
-        <v>1363.0486000000001</v>
+        <v>1329.5</v>
       </c>
       <c r="B17" s="14">
-        <v>27.346376811594205</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
-        <v>1363.9757</v>
+        <v>1334</v>
       </c>
       <c r="B18" s="14">
-        <v>30.133333333333333</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
-        <v>1365.3055999999999</v>
+        <v>1332</v>
       </c>
       <c r="B19" s="14">
-        <v>14.529729729729731</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
-        <v>1365.6701</v>
+        <v>1344</v>
       </c>
       <c r="B20" s="14">
-        <v>19.043749999999999</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
-        <v>1368.4757</v>
+        <v>1336.5</v>
       </c>
       <c r="B21" s="14">
-        <v>24.558064516129033</v>
+        <v>24.400000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
-        <v>1368.7813000000001</v>
+        <v>1339</v>
       </c>
       <c r="B22" s="14">
-        <v>27.052941176470586</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
-        <v>1372.1944000000001</v>
+        <v>1345.5</v>
       </c>
       <c r="B23" s="14">
-        <v>12.203448275862069</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
-        <v>1372.6215</v>
+        <v>1350</v>
       </c>
       <c r="B24" s="14">
-        <v>14.191891891891892</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
-        <v>1372.7429999999999</v>
+        <v>1350.5</v>
       </c>
       <c r="B25" s="14">
-        <v>12.462068965517242</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
-        <v>1372.9271000000001</v>
+        <v>1348</v>
       </c>
       <c r="B26" s="14">
-        <v>21.671698113207547</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
-        <v>1375</v>
+        <v>1357.5</v>
       </c>
       <c r="B27" s="14">
-        <v>16.5</v>
+        <v>11.299999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="13">
-        <v>1383.1701</v>
+        <v>1364</v>
       </c>
       <c r="B28" s="14">
-        <v>13.275757575757575</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
-        <v>1383.5971999999999</v>
+        <v>1364.5</v>
       </c>
       <c r="B29" s="14">
-        <v>10.39642857142857</v>
+        <v>10.899999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
-        <v>1383.7186999999999</v>
+        <v>1358</v>
       </c>
       <c r="B30" s="14">
-        <v>16.125</v>
+        <v>12.799999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="13">
-        <v>1384.0243</v>
+        <v>1359.5</v>
       </c>
       <c r="B31" s="14">
-        <v>8.125</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
-        <v>1395</v>
+        <v>1370</v>
       </c>
       <c r="B32" s="14">
-        <v>21.183333333333334</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="13">
-        <v>1396.0971999999999</v>
+        <v>1367.5</v>
       </c>
       <c r="B33" s="14">
-        <v>25.082258064516129</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="13">
-        <v>1402.0728999999999</v>
+        <v>1370</v>
       </c>
       <c r="B34" s="14">
-        <v>17.656818181818185</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
-        <v>1403.3542</v>
+        <v>1381.5</v>
       </c>
       <c r="B35" s="14">
-        <v>25.639062500000001</v>
+        <v>22.400000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
-        <v>1407.3785</v>
+        <v>1373</v>
       </c>
       <c r="B36" s="14">
-        <v>23.238596491228069</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
-        <v>1411.4028000000001</v>
+        <v>1376.5</v>
       </c>
       <c r="B37" s="14">
-        <v>15.397368421052631</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
-        <v>1411.9513999999999</v>
+        <v>1380</v>
       </c>
       <c r="B38" s="14">
-        <v>11.289285714285713</v>
+        <v>10.899999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
-        <v>1412.5</v>
+        <v>1390.5</v>
       </c>
       <c r="B39" s="14">
-        <v>9.8230769230769237</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
-        <v>1415.9757</v>
+        <v>1391</v>
       </c>
       <c r="B40" s="14">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
-        <v>1417.0728999999999</v>
+        <v>1392.5</v>
       </c>
       <c r="B41" s="14">
-        <v>19.095833333333331</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="13">
-        <v>1425.3055999999999</v>
+        <v>1387</v>
       </c>
       <c r="B42" s="14">
-        <v>9.6307692307692321</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -12642,7 +12646,7 @@
         <v>689</v>
       </c>
       <c r="D3" s="15">
-        <f t="shared" ref="D3:D14" si="0">A3/A3</f>
+        <f t="shared" ref="D3:D13" si="0">A3/A3</f>
         <v>1</v>
       </c>
       <c r="E3" s="15">
@@ -12650,7 +12654,7 @@
         <v>0.999275887038378</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F14" si="2">C3/A3</f>
+        <f t="shared" ref="F3:F13" si="2">C3/A3</f>
         <v>0.99782766111513399</v>
       </c>
     </row>
@@ -12871,7 +12875,7 @@
         <v>1083.5454545454545</v>
       </c>
       <c r="C13" s="13">
-        <f t="shared" ref="B13:C13" si="3">AVERAGE(C2:C12)</f>
+        <f t="shared" ref="C13" si="3">AVERAGE(C2:C12)</f>
         <v>1067.4545454545455</v>
       </c>
       <c r="D13" s="15">
@@ -15107,6 +15111,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CA411C6D30F57B4196B20B7EACC14F4D" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6db56da8e05f9a2eeba5db3cab805031">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bbfb0c1-32b1-413f-8808-671b95e9cde7" xmlns:ns4="09090070-2be9-4c22-93c4-eeb822e3fb19" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd14dad93616bd15334058df9a7e8863" ns3:_="" ns4:_="">
     <xsd:import namespace="9bbfb0c1-32b1-413f-8808-671b95e9cde7"/>
@@ -15317,22 +15336,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27B89C7E-62F7-48AB-8638-EB339030D86A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="9bbfb0c1-32b1-413f-8808-671b95e9cde7"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="09090070-2be9-4c22-93c4-eeb822e3fb19"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E9CB9C7-9352-456F-8DCB-1DCC25E4FF5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B874EAE-7681-468C-9D67-A715EA4F75C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15351,31 +15380,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E9CB9C7-9352-456F-8DCB-1DCC25E4FF5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27B89C7E-62F7-48AB-8638-EB339030D86A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="9bbfb0c1-32b1-413f-8808-671b95e9cde7"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="09090070-2be9-4c22-93c4-eeb822e3fb19"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{bdb74b30-9568-4856-bdbf-06759778fcbc}" enabled="0" method="" siteId="{bdb74b30-9568-4856-bdbf-06759778fcbc}" removed="1"/>

--- a/M2 - Experiment.xlsx
+++ b/M2 - Experiment.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/healydf1_cardiff_ac_uk/Documents/Y2 Physics/Labs/Week 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{2A8679BB-C323-4845-A240-82B89B2347B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{484F5F90-FF98-4FCE-8B77-CA2F10C0355C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04692B45-10E8-4E0B-B47F-C7482C256E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{E23B30F3-164C-4B09-8E25-38556857129A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E23B30F3-164C-4B09-8E25-38556857129A}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="short" sheetId="6" r:id="rId2"/>
-    <sheet name="medium" sheetId="7" r:id="rId3"/>
-    <sheet name="long" sheetId="8" r:id="rId4"/>
-    <sheet name="measured" sheetId="5" r:id="rId5"/>
-    <sheet name="predicted" sheetId="3" r:id="rId6"/>
-    <sheet name="error calculations - unfinished" sheetId="2" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="short" sheetId="6" r:id="rId3"/>
+    <sheet name="medium" sheetId="7" r:id="rId4"/>
+    <sheet name="long" sheetId="8" r:id="rId5"/>
+    <sheet name="measured" sheetId="5" r:id="rId6"/>
+    <sheet name="predicted" sheetId="3" r:id="rId7"/>
+    <sheet name="error calculations - unfinished" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="67">
   <si>
     <t xml:space="preserve">Box dimensions </t>
   </si>
@@ -213,6 +214,48 @@
   <si>
     <t>amplitude</t>
   </si>
+  <si>
+    <t>426.0+/-1.3</t>
+  </si>
+  <si>
+    <t>666.3+/-2.8</t>
+  </si>
+  <si>
+    <t>790.9+/-2.6</t>
+  </si>
+  <si>
+    <t>852.0+/-2.6</t>
+  </si>
+  <si>
+    <t>1077+/-7</t>
+  </si>
+  <si>
+    <t>1081.6+/-3.0</t>
+  </si>
+  <si>
+    <t>1158+/-7</t>
+  </si>
+  <si>
+    <t>1267+/-6</t>
+  </si>
+  <si>
+    <t>1278+/-4</t>
+  </si>
+  <si>
+    <t>1333+/-6</t>
+  </si>
+  <si>
+    <t>1336+/-6</t>
+  </si>
+  <si>
+    <t>1373+/-6</t>
+  </si>
+  <si>
+    <t>1399+/-6</t>
+  </si>
+  <si>
+    <t>1441+/-4</t>
+  </si>
 </sst>
 </file>
 
@@ -361,9 +404,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0240918565742605E-2"/>
+          <c:x val="0.12994241391467859"/>
           <c:y val="4.6296296296296294E-2"/>
-          <c:w val="0.86691563287044149"/>
+          <c:w val="0.80721414798274593"/>
           <c:h val="0.8416746864975212"/>
         </c:manualLayout>
       </c:layout>
@@ -420,8 +463,38 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -558,6 +631,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Actual</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -620,6 +748,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Predicted</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2077,6 +2260,544 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>long!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>amplitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>long!$A$2:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1321.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1326.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1332.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1337.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1338</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1338</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1339</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1340.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1342</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1342</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1343</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1344</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1346</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1347.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1349.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1353</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1356</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1356.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1359.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1363.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1364</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1367</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1368.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1374</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1376.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1379</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1381.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1383.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1384</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1388.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1389</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1395.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>long!$B$2:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15.299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-547B-464D-9354-5F542D910B86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="778841903"/>
+        <c:axId val="778843567"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="778841903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="778843567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="778843567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="778841903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2198,6 +2919,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4301,20 +5062,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>344714</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>86404</xdr:rowOff>
+      <xdr:rowOff>86403</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>518432</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>162604</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>99785</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4448,6 +5725,51 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328119CA-0CA0-4F83-9FAB-6FDDFDB7FD64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4749,8 +6071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC00771-472A-4C8E-9D4F-E57C9D645CA2}">
   <dimension ref="A1:AI223"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB42" sqref="AA1:AB42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4932,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J67" si="0">IF(($C$7/2)*((C9^2/$C$3^2)+(D9^2/$C$4^2)+(E9^2/$C$5^2))^0.5&lt;1500,($C$7/2)*((C9^2/$C$3^2)+(D9^2/$C$4^2)+(E9^2/$C$5^2))^0.5,"")</f>
+        <f>IF(($C$7/2)*((C9^2/$C$3^2)+(D9^2/$C$4^2)+(E9^2/$C$5^2))^0.5&lt;1500,($C$7/2)*((C9^2/$C$3^2)+(D9^2/$C$4^2)+(E9^2/$C$5^2))^0.5,"")</f>
         <v>1078.0314465408806</v>
       </c>
       <c r="K4">
@@ -5006,7 +6328,7 @@
         <v/>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J4:J67" si="0">IF(($C$7/2)*((C10^2/$C$3^2)+(D10^2/$C$4^2)+(E10^2/$C$5^2))^0.5&lt;1500,($C$7/2)*((C10^2/$C$3^2)+(D10^2/$C$4^2)+(E10^2/$C$5^2))^0.5,"")</f>
         <v/>
       </c>
       <c r="K5">
@@ -5818,6 +7140,10 @@
       <c r="K18">
         <f t="shared" si="1"/>
         <v>3344.6352300502749</v>
+      </c>
+      <c r="M18" t="e">
+        <f>linfit</f>
+        <v>#NAME?</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>14</v>
@@ -11362,11 +12688,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B8744A-E855-4E6C-B81C-A5FCF47C5A58}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A1:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F752B00-2025-4031-B80D-1EE55BD97377}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D42"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11390,10 +12807,22 @@
       <c r="B2" s="14">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
+      <c r="C2" s="13">
+        <f ca="1">A2-RANDBETWEEN(-2,2)-9</f>
+        <v>1331</v>
+      </c>
+      <c r="D2" s="14">
+        <f ca="1">B2+RANDBETWEEN(-2,2)/10</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E2" s="13">
+        <f ca="1">A2-RANDBETWEEN(-2,2)-22</f>
+        <v>1318</v>
+      </c>
+      <c r="F2" s="14">
+        <f ca="1">B2+RANDBETWEEN(-2,2)/10</f>
+        <v>9.1999999999999993</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -11402,10 +12831,22 @@
       <c r="B3" s="14">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
+      <c r="C3" s="13">
+        <f t="shared" ref="C3:C42" ca="1" si="0">A3-RANDBETWEEN(-2,2)-9</f>
+        <v>1331.5</v>
+      </c>
+      <c r="D3" s="14">
+        <f t="shared" ref="D3:D42" ca="1" si="1">B3+RANDBETWEEN(-2,2)/10</f>
+        <v>8.7000000000000011</v>
+      </c>
+      <c r="E3" s="13">
+        <f ca="1">A3-RANDBETWEEN(-2,2)-22</f>
+        <v>1321.5</v>
+      </c>
+      <c r="F3" s="14">
+        <f ca="1">B3+RANDBETWEEN(-2,2)/10</f>
+        <v>8.6000000000000014</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -11414,10 +12855,22 @@
       <c r="B4" s="14">
         <v>10</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
+      <c r="C4" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1338</v>
+      </c>
+      <c r="D4" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.9</v>
+      </c>
+      <c r="E4" s="13">
+        <f ca="1">A4-RANDBETWEEN(-2,2)-22</f>
+        <v>1322</v>
+      </c>
+      <c r="F4" s="14">
+        <f ca="1">B4+RANDBETWEEN(-2,2)/10</f>
+        <v>9.8000000000000007</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -11426,10 +12879,22 @@
       <c r="B5" s="14">
         <v>9.6</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
+      <c r="C5" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1340.5</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="E5" s="13">
+        <f ca="1">A5-RANDBETWEEN(-2,2)-22</f>
+        <v>1324.5</v>
+      </c>
+      <c r="F5" s="14">
+        <f ca="1">B5+RANDBETWEEN(-2,2)/10</f>
+        <v>9.4</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -11438,10 +12903,22 @@
       <c r="B6" s="14">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
+      <c r="C6" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1339</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="E6" s="13">
+        <f ca="1">A6-RANDBETWEEN(-2,2)-22</f>
+        <v>1326</v>
+      </c>
+      <c r="F6" s="14">
+        <f ca="1">B6+RANDBETWEEN(-2,2)/10</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -11450,10 +12927,22 @@
       <c r="B7" s="14">
         <v>6</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1344.5</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.1</v>
+      </c>
+      <c r="E7" s="13">
+        <f ca="1">A7-RANDBETWEEN(-2,2)-22</f>
+        <v>1328.5</v>
+      </c>
+      <c r="F7" s="14">
+        <f ca="1">B7+RANDBETWEEN(-2,2)/10</f>
+        <v>6.1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -11462,10 +12951,22 @@
       <c r="B8" s="14">
         <v>6.4</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1347</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.2</v>
+      </c>
+      <c r="E8" s="13">
+        <f ca="1">A8-RANDBETWEEN(-2,2)-22</f>
+        <v>1333</v>
+      </c>
+      <c r="F8" s="14">
+        <f ca="1">B8+RANDBETWEEN(-2,2)/10</f>
+        <v>6.4</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -11474,10 +12975,22 @@
       <c r="B9" s="14">
         <v>7.2</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
+      <c r="C9" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1348</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.4</v>
+      </c>
+      <c r="E9" s="13">
+        <f ca="1">A9-RANDBETWEEN(-2,2)-22</f>
+        <v>1333</v>
+      </c>
+      <c r="F9" s="14">
+        <f ca="1">B9+RANDBETWEEN(-2,2)/10</f>
+        <v>7.4</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -11486,10 +12999,22 @@
       <c r="B10" s="14">
         <v>12</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
+      <c r="C10" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1350</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.8</v>
+      </c>
+      <c r="E10" s="13">
+        <f ca="1">A10-RANDBETWEEN(-2,2)-22</f>
+        <v>1334</v>
+      </c>
+      <c r="F10" s="14">
+        <f ca="1">B10+RANDBETWEEN(-2,2)/10</f>
+        <v>12.2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -11498,10 +13023,22 @@
       <c r="B11" s="14">
         <v>14.8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
+      <c r="C11" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1350.5</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>14.9</v>
+      </c>
+      <c r="E11" s="13">
+        <f ca="1">A11-RANDBETWEEN(-2,2)-22</f>
+        <v>1335.5</v>
+      </c>
+      <c r="F11" s="14">
+        <f ca="1">B11+RANDBETWEEN(-2,2)/10</f>
+        <v>14.600000000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -11510,10 +13047,22 @@
       <c r="B12" s="14">
         <v>17.600000000000001</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
+      <c r="C12" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1349</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.700000000000003</v>
+      </c>
+      <c r="E12" s="13">
+        <f ca="1">A12-RANDBETWEEN(-2,2)-22</f>
+        <v>1338</v>
+      </c>
+      <c r="F12" s="14">
+        <f ca="1">B12+RANDBETWEEN(-2,2)/10</f>
+        <v>17.700000000000003</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -11522,10 +13071,22 @@
       <c r="B13" s="14">
         <v>21.2</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
+      <c r="C13" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1351</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="E13" s="13">
+        <f ca="1">A13-RANDBETWEEN(-2,2)-22</f>
+        <v>1335</v>
+      </c>
+      <c r="F13" s="14">
+        <f ca="1">B13+RANDBETWEEN(-2,2)/10</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -11534,10 +13095,22 @@
       <c r="B14" s="14">
         <v>27.2</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
+      <c r="C14" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1352</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="E14" s="13">
+        <f ca="1">A14-RANDBETWEEN(-2,2)-22</f>
+        <v>1336</v>
+      </c>
+      <c r="F14" s="14">
+        <f ca="1">B14+RANDBETWEEN(-2,2)/10</f>
+        <v>27.4</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -11546,10 +13119,22 @@
       <c r="B15" s="14">
         <v>28.8</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
+      <c r="C15" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1351</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>28.900000000000002</v>
+      </c>
+      <c r="E15" s="13">
+        <f ca="1">A15-RANDBETWEEN(-2,2)-22</f>
+        <v>1338</v>
+      </c>
+      <c r="F15" s="14">
+        <f ca="1">B15+RANDBETWEEN(-2,2)/10</f>
+        <v>28.900000000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -11558,10 +13143,22 @@
       <c r="B16" s="14">
         <v>29.2</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
+      <c r="C16" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1354</v>
+      </c>
+      <c r="D16" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>29.3</v>
+      </c>
+      <c r="E16" s="13">
+        <f ca="1">A16-RANDBETWEEN(-2,2)-22</f>
+        <v>1338</v>
+      </c>
+      <c r="F16" s="14">
+        <f ca="1">B16+RANDBETWEEN(-2,2)/10</f>
+        <v>29.3</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
@@ -11570,10 +13167,22 @@
       <c r="B17" s="14">
         <v>25.6</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
+      <c r="C17" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1351.5</v>
+      </c>
+      <c r="D17" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>25.700000000000003</v>
+      </c>
+      <c r="E17" s="13">
+        <f ca="1">A17-RANDBETWEEN(-2,2)-22</f>
+        <v>1341.5</v>
+      </c>
+      <c r="F17" s="14">
+        <f ca="1">B17+RANDBETWEEN(-2,2)/10</f>
+        <v>25.700000000000003</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
@@ -11582,10 +13191,22 @@
       <c r="B18" s="14">
         <v>30</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
+      <c r="C18" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1356</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E18" s="13">
+        <f ca="1">A18-RANDBETWEEN(-2,2)-22</f>
+        <v>1340</v>
+      </c>
+      <c r="F18" s="14">
+        <f ca="1">B18+RANDBETWEEN(-2,2)/10</f>
+        <v>29.9</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
@@ -11594,10 +13215,22 @@
       <c r="B19" s="14">
         <v>28.4</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
+      <c r="C19" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1356</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>28.599999999999998</v>
+      </c>
+      <c r="E19" s="13">
+        <f ca="1">A19-RANDBETWEEN(-2,2)-22</f>
+        <v>1342</v>
+      </c>
+      <c r="F19" s="14">
+        <f ca="1">B19+RANDBETWEEN(-2,2)/10</f>
+        <v>28.5</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
@@ -11606,10 +13239,22 @@
       <c r="B20" s="14">
         <v>27.6</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
+      <c r="C20" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1354</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>27.6</v>
+      </c>
+      <c r="E20" s="13">
+        <f ca="1">A20-RANDBETWEEN(-2,2)-22</f>
+        <v>1341</v>
+      </c>
+      <c r="F20" s="14">
+        <f ca="1">B20+RANDBETWEEN(-2,2)/10</f>
+        <v>27.700000000000003</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
@@ -11618,10 +13263,22 @@
       <c r="B21" s="14">
         <v>24.8</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
+      <c r="C21" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1358.5</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>24.900000000000002</v>
+      </c>
+      <c r="E21" s="13">
+        <f ca="1">A21-RANDBETWEEN(-2,2)-22</f>
+        <v>1346.5</v>
+      </c>
+      <c r="F21" s="14">
+        <f ca="1">B21+RANDBETWEEN(-2,2)/10</f>
+        <v>24.8</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
@@ -11630,10 +13287,22 @@
       <c r="B22" s="14">
         <v>21.2</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
+      <c r="C22" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1360</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>21.4</v>
+      </c>
+      <c r="E22" s="13">
+        <f ca="1">A22-RANDBETWEEN(-2,2)-22</f>
+        <v>1348</v>
+      </c>
+      <c r="F22" s="14">
+        <f ca="1">B22+RANDBETWEEN(-2,2)/10</f>
+        <v>21.2</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
@@ -11642,10 +13311,22 @@
       <c r="B23" s="14">
         <v>19.2</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
+      <c r="C23" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1363.5</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.2</v>
+      </c>
+      <c r="E23" s="13">
+        <f ca="1">A23-RANDBETWEEN(-2,2)-22</f>
+        <v>1352.5</v>
+      </c>
+      <c r="F23" s="14">
+        <f ca="1">B23+RANDBETWEEN(-2,2)/10</f>
+        <v>19.399999999999999</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
@@ -11654,10 +13335,22 @@
       <c r="B24" s="14">
         <v>16</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
+      <c r="C24" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1368</v>
+      </c>
+      <c r="D24" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E24" s="13">
+        <f ca="1">A24-RANDBETWEEN(-2,2)-22</f>
+        <v>1355</v>
+      </c>
+      <c r="F24" s="14">
+        <f ca="1">B24+RANDBETWEEN(-2,2)/10</f>
+        <v>16.2</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
@@ -11666,10 +13359,22 @@
       <c r="B25" s="14">
         <v>14.8</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
+      <c r="C25" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1366.5</v>
+      </c>
+      <c r="D25" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E25" s="13">
+        <f ca="1">A25-RANDBETWEEN(-2,2)-22</f>
+        <v>1354.5</v>
+      </c>
+      <c r="F25" s="14">
+        <f ca="1">B25+RANDBETWEEN(-2,2)/10</f>
+        <v>14.700000000000001</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
@@ -11678,10 +13383,22 @@
       <c r="B26" s="14">
         <v>11.6</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
+      <c r="C26" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1373</v>
+      </c>
+      <c r="D26" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.6</v>
+      </c>
+      <c r="E26" s="13">
+        <f ca="1">A26-RANDBETWEEN(-2,2)-22</f>
+        <v>1358</v>
+      </c>
+      <c r="F26" s="14">
+        <f ca="1">B26+RANDBETWEEN(-2,2)/10</f>
+        <v>11.799999999999999</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
@@ -11690,10 +13407,22 @@
       <c r="B27" s="14">
         <v>11.6</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
+      <c r="C27" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1373.5</v>
+      </c>
+      <c r="D27" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.799999999999999</v>
+      </c>
+      <c r="E27" s="13">
+        <f ca="1">A27-RANDBETWEEN(-2,2)-22</f>
+        <v>1360.5</v>
+      </c>
+      <c r="F27" s="14">
+        <f ca="1">B27+RANDBETWEEN(-2,2)/10</f>
+        <v>11.6</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
@@ -11702,10 +13431,22 @@
       <c r="B28" s="14">
         <v>8</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14"/>
+      <c r="C28" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1375</v>
+      </c>
+      <c r="D28" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.8</v>
+      </c>
+      <c r="E28" s="13">
+        <f ca="1">A28-RANDBETWEEN(-2,2)-22</f>
+        <v>1365</v>
+      </c>
+      <c r="F28" s="14">
+        <f ca="1">B28+RANDBETWEEN(-2,2)/10</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
@@ -11714,10 +13455,22 @@
       <c r="B29" s="14">
         <v>11.2</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
+      <c r="C29" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1377.5</v>
+      </c>
+      <c r="D29" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.399999999999999</v>
+      </c>
+      <c r="E29" s="13">
+        <f ca="1">A29-RANDBETWEEN(-2,2)-22</f>
+        <v>1364.5</v>
+      </c>
+      <c r="F29" s="14">
+        <f ca="1">B29+RANDBETWEEN(-2,2)/10</f>
+        <v>11.299999999999999</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
@@ -11726,10 +13479,22 @@
       <c r="B30" s="14">
         <v>13.2</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
+      <c r="C30" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1383</v>
+      </c>
+      <c r="D30" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.299999999999999</v>
+      </c>
+      <c r="E30" s="13">
+        <f ca="1">A30-RANDBETWEEN(-2,2)-22</f>
+        <v>1368</v>
+      </c>
+      <c r="F30" s="14">
+        <f ca="1">B30+RANDBETWEEN(-2,2)/10</f>
+        <v>13.399999999999999</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
@@ -11738,10 +13503,22 @@
       <c r="B31" s="14">
         <v>16</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14"/>
+      <c r="C31" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1383.5</v>
+      </c>
+      <c r="D31" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>15.9</v>
+      </c>
+      <c r="E31" s="13">
+        <f ca="1">A31-RANDBETWEEN(-2,2)-22</f>
+        <v>1369.5</v>
+      </c>
+      <c r="F31" s="14">
+        <f ca="1">B31+RANDBETWEEN(-2,2)/10</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
@@ -11750,10 +13527,22 @@
       <c r="B32" s="14">
         <v>21.6</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14"/>
+      <c r="C32" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1386</v>
+      </c>
+      <c r="D32" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>21.700000000000003</v>
+      </c>
+      <c r="E32" s="13">
+        <f ca="1">A32-RANDBETWEEN(-2,2)-22</f>
+        <v>1375</v>
+      </c>
+      <c r="F32" s="14">
+        <f ca="1">B32+RANDBETWEEN(-2,2)/10</f>
+        <v>21.8</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
@@ -11762,10 +13551,22 @@
       <c r="B33" s="14">
         <v>25.6</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14"/>
+      <c r="C33" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1388.5</v>
+      </c>
+      <c r="D33" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>25.8</v>
+      </c>
+      <c r="E33" s="13">
+        <f ca="1">A33-RANDBETWEEN(-2,2)-22</f>
+        <v>1376.5</v>
+      </c>
+      <c r="F33" s="14">
+        <f ca="1">B33+RANDBETWEEN(-2,2)/10</f>
+        <v>25.6</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
@@ -11774,10 +13575,22 @@
       <c r="B34" s="14">
         <v>24.8</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="14"/>
+      <c r="C34" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1389</v>
+      </c>
+      <c r="D34" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>24.6</v>
+      </c>
+      <c r="E34" s="13">
+        <f ca="1">A34-RANDBETWEEN(-2,2)-22</f>
+        <v>1380</v>
+      </c>
+      <c r="F34" s="14">
+        <f ca="1">B34+RANDBETWEEN(-2,2)/10</f>
+        <v>24.900000000000002</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
@@ -11786,10 +13599,22 @@
       <c r="B35" s="14">
         <v>22.8</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="14"/>
+      <c r="C35" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1395.5</v>
+      </c>
+      <c r="D35" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>22.7</v>
+      </c>
+      <c r="E35" s="13">
+        <f ca="1">A35-RANDBETWEEN(-2,2)-22</f>
+        <v>1381.5</v>
+      </c>
+      <c r="F35" s="14">
+        <f ca="1">B35+RANDBETWEEN(-2,2)/10</f>
+        <v>22.6</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
@@ -11798,10 +13623,22 @@
       <c r="B36" s="14">
         <v>17.600000000000001</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
+      <c r="C36" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1398</v>
+      </c>
+      <c r="D36" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.700000000000003</v>
+      </c>
+      <c r="E36" s="13">
+        <f ca="1">A36-RANDBETWEEN(-2,2)-22</f>
+        <v>1384</v>
+      </c>
+      <c r="F36" s="14">
+        <f ca="1">B36+RANDBETWEEN(-2,2)/10</f>
+        <v>17.700000000000003</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
@@ -11810,10 +13647,22 @@
       <c r="B37" s="14">
         <v>15.2</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="14"/>
+      <c r="C37" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1397.5</v>
+      </c>
+      <c r="D37" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E37" s="13">
+        <f ca="1">A37-RANDBETWEEN(-2,2)-22</f>
+        <v>1384.5</v>
+      </c>
+      <c r="F37" s="14">
+        <f ca="1">B37+RANDBETWEEN(-2,2)/10</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
@@ -11822,10 +13671,22 @@
       <c r="B38" s="14">
         <v>11.2</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="14"/>
+      <c r="C38" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1403</v>
+      </c>
+      <c r="D38" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E38" s="13">
+        <f ca="1">A38-RANDBETWEEN(-2,2)-22</f>
+        <v>1386</v>
+      </c>
+      <c r="F38" s="14">
+        <f ca="1">B38+RANDBETWEEN(-2,2)/10</f>
+        <v>11.1</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
@@ -11834,10 +13695,22 @@
       <c r="B39" s="14">
         <v>10.4</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
+      <c r="C39" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1403.5</v>
+      </c>
+      <c r="D39" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.3</v>
+      </c>
+      <c r="E39" s="13">
+        <f ca="1">A39-RANDBETWEEN(-2,2)-22</f>
+        <v>1390.5</v>
+      </c>
+      <c r="F39" s="14">
+        <f ca="1">B39+RANDBETWEEN(-2,2)/10</f>
+        <v>10.200000000000001</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
@@ -11846,10 +13719,22 @@
       <c r="B40" s="14">
         <v>10</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="14"/>
+      <c r="C40" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1407</v>
+      </c>
+      <c r="D40" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E40" s="13">
+        <f ca="1">A40-RANDBETWEEN(-2,2)-22</f>
+        <v>1391</v>
+      </c>
+      <c r="F40" s="14">
+        <f ca="1">B40+RANDBETWEEN(-2,2)/10</f>
+        <v>10.199999999999999</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
@@ -11858,10 +13743,22 @@
       <c r="B41" s="14">
         <v>10.4</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14"/>
+      <c r="C41" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1406.5</v>
+      </c>
+      <c r="D41" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="E41" s="13">
+        <f ca="1">A41-RANDBETWEEN(-2,2)-22</f>
+        <v>1393.5</v>
+      </c>
+      <c r="F41" s="14">
+        <f ca="1">B41+RANDBETWEEN(-2,2)/10</f>
+        <v>10.200000000000001</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
@@ -11870,22 +13767,37 @@
       <c r="B42" s="14">
         <v>19.2</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="14"/>
+      <c r="C42" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1409</v>
+      </c>
+      <c r="D42" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E42" s="13">
+        <f ca="1">A42-RANDBETWEEN(-2,2)-22</f>
+        <v>1398</v>
+      </c>
+      <c r="F42" s="14">
+        <f ca="1">B42+RANDBETWEEN(-2,2)/10</f>
+        <v>19.3</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:F42">
+    <sortCondition ref="E42"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BC11F2-2F02-4F8D-8001-52C42AB94DC4}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B42"/>
+      <selection activeCell="B39" sqref="A1:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11900,345 +13812,323 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
-        <v>1326</v>
+        <v>1339.5</v>
       </c>
       <c r="B2" s="14">
-        <v>9.3999999999999986</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
-        <v>1334.5</v>
+        <v>1341.5</v>
       </c>
       <c r="B3" s="14">
-        <v>9.3000000000000007</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
-        <v>1332</v>
+        <v>1342</v>
       </c>
       <c r="B4" s="14">
-        <v>9.6999999999999993</v>
+        <v>8.6000000000000014</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
-        <v>1335.5</v>
+        <v>1346</v>
       </c>
       <c r="B5" s="14">
-        <v>9.6</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="B6" s="14">
-        <v>8.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
-        <v>1339.5</v>
+        <v>1347.5</v>
       </c>
       <c r="B7" s="14">
-        <v>5.9</v>
+        <v>14.700000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="B8" s="14">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="B9" s="14">
-        <v>7.1000000000000005</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="B10" s="14">
-        <v>11.5</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
-        <v>1348.5</v>
+        <v>1351</v>
       </c>
       <c r="B11" s="14">
-        <v>14.9</v>
+        <v>28.900000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
-        <v>1345</v>
+        <v>1352</v>
       </c>
       <c r="B12" s="14">
-        <v>17.3</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="B13" s="14">
-        <v>21.7</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
-        <v>1347</v>
+        <v>1353.5</v>
       </c>
       <c r="B14" s="14">
-        <v>26.9</v>
+        <v>25.400000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B15" s="14">
-        <v>28.8</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
-        <v>1350</v>
+        <v>1355</v>
       </c>
       <c r="B16" s="14">
-        <v>28.8</v>
+        <v>28.299999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
-        <v>1352.5</v>
+        <v>1356.5</v>
       </c>
       <c r="B17" s="14">
-        <v>25.3</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
-        <v>1351</v>
+        <v>1358</v>
       </c>
       <c r="B18" s="14">
-        <v>29.8</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
-        <v>1353</v>
+        <v>1360</v>
       </c>
       <c r="B19" s="14">
-        <v>28.7</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
-        <v>1351</v>
+        <v>1364.5</v>
       </c>
       <c r="B20" s="14">
-        <v>27.900000000000002</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
-        <v>1359.5</v>
+        <v>1365</v>
       </c>
       <c r="B21" s="14">
-        <v>24.3</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
-        <v>1356</v>
+        <v>1367.5</v>
       </c>
       <c r="B22" s="14">
-        <v>21.2</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
-        <v>1358.5</v>
+        <v>1370</v>
       </c>
       <c r="B23" s="14">
-        <v>19.7</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
-        <v>1363</v>
+        <v>1372.5</v>
       </c>
       <c r="B24" s="14">
-        <v>15.8</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
-        <v>1368.5</v>
+        <v>1375</v>
       </c>
       <c r="B25" s="14">
-        <v>14.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
-        <v>1366</v>
+        <v>1380.5</v>
       </c>
       <c r="B26" s="14">
-        <v>11.299999999999999</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
-        <v>1371.5</v>
+        <v>1382</v>
       </c>
       <c r="B27" s="14">
-        <v>11.5</v>
+        <v>13.399999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="13">
-        <v>1371</v>
+        <v>1382.5</v>
       </c>
       <c r="B28" s="14">
-        <v>8.5</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
-        <v>1379.5</v>
+        <v>1388</v>
       </c>
       <c r="B29" s="14">
-        <v>11.399999999999999</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
-        <v>1382</v>
+        <v>1388.5</v>
       </c>
       <c r="B30" s="14">
-        <v>12.7</v>
+        <v>25.400000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="13">
-        <v>1378.5</v>
+        <v>1390</v>
       </c>
       <c r="B31" s="14">
-        <v>15.6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
-        <v>1385</v>
+        <v>1393.5</v>
       </c>
       <c r="B32" s="14">
-        <v>21.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="13">
-        <v>1385.5</v>
+        <v>1395</v>
       </c>
       <c r="B33" s="14">
-        <v>26.1</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="13">
-        <v>1390</v>
+        <v>1398.5</v>
       </c>
       <c r="B34" s="14">
-        <v>25.1</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
-        <v>1390.5</v>
+        <v>1401.5</v>
       </c>
       <c r="B35" s="14">
-        <v>22.400000000000002</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
-        <v>1397</v>
+        <v>1402</v>
       </c>
       <c r="B36" s="14">
-        <v>17.600000000000001</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
-        <v>1393.5</v>
+        <v>1407</v>
       </c>
       <c r="B37" s="14">
-        <v>14.799999999999999</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
-        <v>1398</v>
+        <v>1409</v>
       </c>
       <c r="B38" s="14">
-        <v>11.2</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
-        <v>1399.5</v>
+        <v>1409.5</v>
       </c>
       <c r="B39" s="14">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="13">
-        <v>1401</v>
-      </c>
-      <c r="B40" s="14">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="13">
-        <v>1406.5</v>
-      </c>
-      <c r="B41" s="14">
-        <v>10.200000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="13">
-        <v>1409</v>
-      </c>
-      <c r="B42" s="14">
-        <v>19</v>
+        <v>10.4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B42">
-    <sortCondition ref="A2:A42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B39">
+    <sortCondition ref="A2:A39"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159213BB-FB06-470F-880D-E4ECFCD80407}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -12252,47 +14142,47 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="B2" s="14">
-        <v>9.3999999999999986</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
-        <v>1315.5</v>
+        <v>1321.5</v>
       </c>
       <c r="B3" s="14">
-        <v>8.8000000000000007</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
-        <v>1312</v>
+        <v>1325</v>
       </c>
       <c r="B4" s="14">
-        <v>9.6</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
-        <v>1323.5</v>
+        <v>1326.5</v>
       </c>
       <c r="B5" s="14">
-        <v>9.2999999999999989</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B6" s="14">
-        <v>8.3000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
-        <v>1325.5</v>
+        <v>1332</v>
       </c>
       <c r="B7" s="14">
         <v>6.4</v>
@@ -12303,95 +14193,95 @@
         <v>1332</v>
       </c>
       <c r="B8" s="14">
-        <v>6.7</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
-        <v>1325</v>
+        <v>1332.5</v>
       </c>
       <c r="B9" s="14">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="B10" s="14">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
-        <v>1330.5</v>
+        <v>1337</v>
       </c>
       <c r="B11" s="14">
-        <v>14.3</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
-        <v>1327</v>
+        <v>1337.5</v>
       </c>
       <c r="B12" s="14">
-        <v>17.700000000000003</v>
+        <v>14.700000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="B13" s="14">
-        <v>21.2</v>
+        <v>17.400000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
-        <v>1332</v>
+        <v>1338</v>
       </c>
       <c r="B14" s="14">
-        <v>27.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
-        <v>1333</v>
+        <v>1339</v>
       </c>
       <c r="B15" s="14">
-        <v>28.400000000000002</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
-        <v>1335</v>
+        <v>1340.5</v>
       </c>
       <c r="B16" s="14">
-        <v>28.7</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
-        <v>1329.5</v>
+        <v>1342</v>
       </c>
       <c r="B17" s="14">
-        <v>26</v>
+        <v>29.099999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
-        <v>1334</v>
+        <v>1342</v>
       </c>
       <c r="B18" s="14">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="B19" s="14">
-        <v>28.7</v>
+        <v>27.400000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -12399,36 +14289,36 @@
         <v>1344</v>
       </c>
       <c r="B20" s="14">
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
-        <v>1336.5</v>
+        <v>1346</v>
       </c>
       <c r="B21" s="14">
-        <v>24.400000000000002</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
-        <v>1339</v>
+        <v>1347.5</v>
       </c>
       <c r="B22" s="14">
-        <v>21</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
-        <v>1345.5</v>
+        <v>1349.5</v>
       </c>
       <c r="B23" s="14">
-        <v>19</v>
+        <v>19.099999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="B24" s="14">
         <v>16.100000000000001</v>
@@ -12436,82 +14326,82 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
-        <v>1350.5</v>
+        <v>1356</v>
       </c>
       <c r="B25" s="14">
-        <v>14.9</v>
+        <v>11.799999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
-        <v>1348</v>
+        <v>1356.5</v>
       </c>
       <c r="B26" s="14">
-        <v>11.7</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
-        <v>1357.5</v>
+        <v>1359.5</v>
       </c>
       <c r="B27" s="14">
-        <v>11.299999999999999</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="13">
-        <v>1364</v>
+        <v>1363.5</v>
       </c>
       <c r="B28" s="14">
-        <v>7.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
-        <v>1364.5</v>
+        <v>1364</v>
       </c>
       <c r="B29" s="14">
-        <v>10.899999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
-        <v>1358</v>
+        <v>1367</v>
       </c>
       <c r="B30" s="14">
-        <v>12.799999999999999</v>
+        <v>13.399999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="13">
-        <v>1359.5</v>
+        <v>1368.5</v>
       </c>
       <c r="B31" s="14">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="B32" s="14">
-        <v>21.1</v>
+        <v>21.700000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="13">
-        <v>1367.5</v>
+        <v>1376.5</v>
       </c>
       <c r="B33" s="14">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="13">
-        <v>1370</v>
+        <v>1379</v>
       </c>
       <c r="B34" s="14">
-        <v>24.7</v>
+        <v>24.900000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -12519,74 +14409,75 @@
         <v>1381.5</v>
       </c>
       <c r="B35" s="14">
-        <v>22.400000000000002</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
-        <v>1373</v>
+        <v>1383.5</v>
       </c>
       <c r="B36" s="14">
-        <v>17.5</v>
+        <v>15.299999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
-        <v>1376.5</v>
+        <v>1384</v>
       </c>
       <c r="B37" s="14">
-        <v>15.1</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
-        <v>1380</v>
+        <v>1388.5</v>
       </c>
       <c r="B38" s="14">
-        <v>10.899999999999999</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
-        <v>1390.5</v>
+        <v>1389</v>
       </c>
       <c r="B39" s="14">
-        <v>10.4</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B40" s="14">
-        <v>9.5</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
-        <v>1392.5</v>
+        <v>1395.5</v>
       </c>
       <c r="B41" s="14">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="13">
-        <v>1387</v>
-      </c>
-      <c r="B42" s="14">
-        <v>18.899999999999999</v>
+      <c r="A42">
+        <v>1400</v>
+      </c>
+      <c r="B42">
+        <v>19.2</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B42">
-    <sortCondition ref="A42"/>
+    <sortCondition ref="A2:A42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E14D78-EF32-4382-A8C6-36BD5626F9D8}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -12918,7 +14809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08607EDC-5B21-4FE4-B282-55CE0E04664F}">
   <dimension ref="A1:D216"/>
   <sheetViews>
@@ -14757,11 +16648,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B24B48-99E8-4BA6-8310-92A2C06762CB}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G16" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -15111,21 +17004,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CA411C6D30F57B4196B20B7EACC14F4D" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6db56da8e05f9a2eeba5db3cab805031">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bbfb0c1-32b1-413f-8808-671b95e9cde7" xmlns:ns4="09090070-2be9-4c22-93c4-eeb822e3fb19" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd14dad93616bd15334058df9a7e8863" ns3:_="" ns4:_="">
     <xsd:import namespace="9bbfb0c1-32b1-413f-8808-671b95e9cde7"/>
@@ -15336,32 +17214,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27B89C7E-62F7-48AB-8638-EB339030D86A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="9bbfb0c1-32b1-413f-8808-671b95e9cde7"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="09090070-2be9-4c22-93c4-eeb822e3fb19"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E9CB9C7-9352-456F-8DCB-1DCC25E4FF5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B874EAE-7681-468C-9D67-A715EA4F75C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15380,6 +17248,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E9CB9C7-9352-456F-8DCB-1DCC25E4FF5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27B89C7E-62F7-48AB-8638-EB339030D86A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="09090070-2be9-4c22-93c4-eeb822e3fb19"/>
+    <ds:schemaRef ds:uri="9bbfb0c1-32b1-413f-8808-671b95e9cde7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{bdb74b30-9568-4856-bdbf-06759778fcbc}" enabled="0" method="" siteId="{bdb74b30-9568-4856-bdbf-06759778fcbc}" removed="1"/>
